--- a/Results/2023-12-14_01-18-07_Joplin_150Clusters_Budget30M_5.0Miles.xlsx
+++ b/Results/2023-12-14_01-18-07_Joplin_150Clusters_Budget30M_5.0Miles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2A7B20-1A60-4125-904B-078BEEDA3CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE8263-4851-46A2-A47A-C4F5B289C84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-12-14_01-18-07_Joplin_150C" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4459.63</v>
+        <v>2274.7600000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4458.1400000000003</v>
+        <v>2273.09</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1068,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1076,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>28.93</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>13.42</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
